--- a/fastqFiles/fastq_1800.xlsx
+++ b/fastqFiles/fastq_1800.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C52199-1D16-654A-BF59-10EF2C6614D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="60">
   <si>
     <t>libraryDate</t>
   </si>
@@ -37,9 +43,6 @@
     <t>10.04.16</t>
   </si>
   <si>
-    <t>Retrofitted_1800</t>
-  </si>
-  <si>
     <t>sequence/run_1800_samples/1800_Brent_1_TGAGGTT_S1_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -191,13 +194,19 @@
   </si>
   <si>
     <t>sequence/run_1800_samples/1800_Brent_51_CTCCCGA_S51_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
+  </si>
+  <si>
+    <t>S.GISH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +269,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -306,7 +323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,9 +355,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,6 +407,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,14 +600,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,12 +629,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -588,18 +643,18 @@
         <v>1800</v>
       </c>
       <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -608,18 +663,18 @@
         <v>1800</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -628,18 +683,18 @@
         <v>1800</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -648,18 +703,18 @@
         <v>1800</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -668,38 +723,38 @@
         <v>1800</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1800</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>1800</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -708,18 +763,18 @@
         <v>1800</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -728,18 +783,18 @@
         <v>1800</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -748,18 +803,18 @@
         <v>1800</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -768,18 +823,18 @@
         <v>1800</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -788,18 +843,18 @@
         <v>1800</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -808,18 +863,18 @@
         <v>1800</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -828,18 +883,18 @@
         <v>1800</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -848,18 +903,18 @@
         <v>1800</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -868,18 +923,18 @@
         <v>1800</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -888,18 +943,18 @@
         <v>1800</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -908,18 +963,18 @@
         <v>1800</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -928,18 +983,18 @@
         <v>1800</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -948,18 +1003,18 @@
         <v>1800</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -968,18 +1023,18 @@
         <v>1800</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -988,18 +1043,18 @@
         <v>1800</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1008,18 +1063,18 @@
         <v>1800</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1028,18 +1083,18 @@
         <v>1800</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1048,18 +1103,18 @@
         <v>1800</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1068,18 +1123,18 @@
         <v>1800</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1088,18 +1143,18 @@
         <v>1800</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1108,18 +1163,18 @@
         <v>1800</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1128,18 +1183,18 @@
         <v>1800</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1148,18 +1203,18 @@
         <v>1800</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1168,18 +1223,18 @@
         <v>1800</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1188,18 +1243,18 @@
         <v>1800</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1208,18 +1263,18 @@
         <v>1800</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1228,18 +1283,18 @@
         <v>1800</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1248,18 +1303,18 @@
         <v>1800</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1268,18 +1323,18 @@
         <v>1800</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1288,18 +1343,18 @@
         <v>1800</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1308,18 +1363,18 @@
         <v>1800</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1328,18 +1383,18 @@
         <v>1800</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1348,18 +1403,18 @@
         <v>1800</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1368,18 +1423,18 @@
         <v>1800</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1388,18 +1443,18 @@
         <v>1800</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1408,18 +1463,18 @@
         <v>1800</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1428,18 +1483,18 @@
         <v>1800</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1448,18 +1503,18 @@
         <v>1800</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1468,18 +1523,18 @@
         <v>1800</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1488,18 +1543,18 @@
         <v>1800</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1508,18 +1563,18 @@
         <v>1800</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1528,18 +1583,18 @@
         <v>1800</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1548,18 +1603,18 @@
         <v>1800</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1568,18 +1623,18 @@
         <v>1800</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1588,10 +1643,10 @@
         <v>1800</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_1800.xlsx
+++ b/fastqFiles/fastq_1800.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
